--- a/xlsx/a69_f46aUPPachuca.xlsx
+++ b/xlsx/a69_f46aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="555" windowWidth="15600" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -154,10 +149,10 @@
     <t>Extraordinaria</t>
   </si>
   <si>
+    <t xml:space="preserve"> Secretaria Academica (UPP)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conforme a lo establecido en Capítulo V del Decreto Vigente de la Universidad, relativo al Consejo Consultivo, este es un Órgano Colegiado con las funciones de asesorar al Rector en materia académica y de conducción universitaria, así como en las normas relativas a la organización y funcionamiento académico, entre otras; hasta el momento no ha sido instalado puesto que los Consejos de Calidad y Social de la Institución, realizan el análisis y seguimiento de dichos temas como parte de sus funciones, motivo que ha contribuido a no realizar la instalación del Consejo Consultivo. </t>
-  </si>
-  <si>
-    <t>Secretaria Academica (UPP)</t>
   </si>
 </sst>
 </file>
@@ -229,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -240,14 +235,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +551,7 @@
     <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="85.28515625" customWidth="1"/>
+    <col min="13" max="13" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -557,38 +560,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -673,21 +676,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -730,15 +733,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -747,16 +750,16 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="L8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="L8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +773,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
       <formula1>Hidden_14</formula1>
     </dataValidation>
   </dataValidations>
